--- a/techniqo/data_new_ticker/BHARATRAS.xlsx
+++ b/techniqo/data_new_ticker/BHARATRAS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1400"/>
+  <dimension ref="A1:G1402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49386,6 +49386,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>9599</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>9599</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>9421</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>9492.15</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>3144</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>9589</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>10149.95</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>9503.9</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>10078.7</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>19000</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/BHARATRAS.xlsx
+++ b/techniqo/data_new_ticker/BHARATRAS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1402"/>
+  <dimension ref="A1:G1404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49436,6 +49436,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>10163</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>9906.299999999999</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>6658</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>9970</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>10070</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>9685</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>9855.200000000001</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>4203</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
